--- a/data/trans_dic/P25C$smedicoempresa_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P25C$smedicoempresa_2023-Dificultad-trans_dic.xlsx
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.002940024015155337</v>
+        <v>0.002940024015155338</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.002025345334175745</v>
+        <v>0.002025345334175746</v>
       </c>
     </row>
     <row r="8">
@@ -639,11 +639,11 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01449997806781392</v>
+        <v>0.01534134514075138</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.0103872683144319</v>
+        <v>0.01051845027472666</v>
       </c>
     </row>
     <row r="10">
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001151862906758425</v>
+        <v>0.001142925211830952</v>
       </c>
     </row>
     <row r="15">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03019169985505246</v>
+        <v>0.02888470208307344</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01347259491058987</v>
+        <v>0.0168497014625586</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01808622369410361</v>
+        <v>0.02037987581018442</v>
       </c>
     </row>
     <row r="16">
@@ -773,13 +773,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.000877264522625499</v>
+        <v>0.0008774369863766462</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.000612908248592498</v>
+        <v>0.0006204427136199534</v>
       </c>
     </row>
     <row r="18">
@@ -790,13 +790,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.009709098848047101</v>
+        <v>0.01060355266089766</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.004387087747011517</v>
+        <v>0.00547775833159254</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.00736835406019593</v>
+        <v>0.007188982592330404</v>
       </c>
     </row>
     <row r="19">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>2818</v>
+        <v>2981</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>2930</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="12">
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6240</v>
+        <v>5970</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1762</v>
+        <v>2204</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6103</v>
+        <v>6877</v>
       </c>
     </row>
     <row r="20">
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="23">
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6360</v>
+        <v>6946</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1585</v>
+        <v>1979</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7489</v>
+        <v>7307</v>
       </c>
     </row>
     <row r="24">
